--- a/Unity/Assets/Config/Excel/StartConfig/Localhost2/startconfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost2/startconfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -182,6 +182,46 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +363,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,22 +383,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,7 +688,9 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -672,7 +705,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -687,7 +722,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -701,18 +738,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -725,10 +770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,8 +789,10 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -756,8 +803,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -768,7 +817,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -779,147 +830,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
         <v>101</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>20101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>102</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>20103</v>
+        <v>20102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>20104</v>
+        <v>20103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>20105</v>
+        <v>20104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>20106</v>
+        <v>20105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>20107</v>
+        <v>20106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>20201</v>
+        <v>20107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>20301</v>
+        <v>20201</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>20302</v>
+        <v>20301</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>20303</v>
+        <v>20302</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>20304</v>
+        <v>20303</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
+        <v>304</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20304</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>305</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>20305</v>
       </c>
     </row>
@@ -932,10 +991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,8 +1013,10 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -975,8 +1036,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -996,7 +1059,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1016,53 +1081,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
         <v>101</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>101</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>30002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>102</v>
-      </c>
-      <c r="C6" s="1">
-        <v>102</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>30003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1071,52 +1124,55 @@
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>30004</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1125,72 +1181,69 @@
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1">
-        <v>30301</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C13" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1">
-        <v>30302</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C14" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -1199,18 +1252,18 @@
         <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1">
-        <v>30303</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="1">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1219,18 +1272,18 @@
         <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1">
-        <v>30304</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1239,9 +1292,29 @@
         <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1">
+        <v>30304</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>305</v>
+      </c>
+      <c r="C17" s="1">
+        <v>305</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>30305</v>
       </c>
     </row>
@@ -1254,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1275,69 +1348,83 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
